--- a/Чек-лист.xlsx
+++ b/Чек-лист.xlsx
@@ -138,12 +138,6 @@
     <t>Ввод запроса с адресом дома</t>
   </si>
   <si>
-    <t>Ввод запроса с неправильно выбранной английской раскладкой клавиатуры</t>
-  </si>
-  <si>
-    <t>Ввод запроса с неправильно выбранной русской раскладкой клавиатуры</t>
-  </si>
-  <si>
     <t>Ввод запроса только с различными регистрами</t>
   </si>
   <si>
@@ -153,10 +147,16 @@
     <t>Ввод запроса со знаком плюс вместо пробелов</t>
   </si>
   <si>
-    <t>Работает, но сайт несколько раз давал ответ, то что данные не найдены</t>
-  </si>
-  <si>
     <t>https://github.com/TakingAway/VLSearchTestProject</t>
+  </si>
+  <si>
+    <t>Работает, но сайт несколько раз давал ответ, что данные не найдены</t>
+  </si>
+  <si>
+    <t>Ввод запроса на русском языке с английской раскладкой</t>
+  </si>
+  <si>
+    <t>Ввод запроса на английском языке с русской раскладкой</t>
   </si>
 </sst>
 </file>
@@ -588,14 +588,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>21</v>
@@ -922,13 +922,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -936,13 +936,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>21</v>
@@ -974,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>21</v>
